--- a/python-excel-how-headers-work-start.xlsx
+++ b/python-excel-how-headers-work-start.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D02C4-4CF6-4957-8702-26F3EA91B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382078C6-BEB5-44CE-866E-6688EA27B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="names" sheetId="1" r:id="rId1"/>
+    <sheet name="points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>player</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>points</t>
   </si>
@@ -111,6 +109,24 @@
   </si>
   <si>
     <t xml:space="preserve"> PA</t>
+  </si>
+  <si>
+    <t>player_name</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kareem Abdul-Jabbar</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
   </si>
 </sst>
 </file>
@@ -146,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,136 +499,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="6" max="6" width="10.8828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.37109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.37109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE53D4D-F836-48E9-BE22-384F79E2DD3A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <cols>
+    <col min="1" max="1" width="17.33984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>38923</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="1.05">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
         <v>38387</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
         <v>36928</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
         <v>33643</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
         <v>32292</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/python-excel-how-headers-work-start.xlsx
+++ b/python-excel-how-headers-work-start.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382078C6-BEB5-44CE-866E-6688EA27B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AFA2CF-8EA9-4F6E-B794-58CDB270C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="4372" yWindow="600" windowWidth="14040" windowHeight="9083" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="names" sheetId="1" r:id="rId1"/>
-    <sheet name="points" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>points</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>LeBron</t>
   </si>
@@ -109,24 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve"> PA</t>
-  </si>
-  <si>
-    <t>player_name</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Kareem Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>Karl Malone</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
   </si>
 </sst>
 </file>
@@ -162,9 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,150 +488,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE53D4D-F836-48E9-BE22-384F79E2DD3A}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
-  <cols>
-    <col min="1" max="1" width="17.33984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>38995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>38387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>36928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>33643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>32292</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
